--- a/pred_ohlcv/54/2019-10-25 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-25 OGO ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>19.57666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -452,6 +460,9 @@
         <v>19.585</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -478,6 +489,9 @@
         <v>19.585</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -504,6 +518,9 @@
         <v>19.61</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -556,6 +576,9 @@
         <v>19.62833333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,6 +605,9 @@
         <v>19.635</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,6 +634,9 @@
         <v>19.65</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -634,6 +663,9 @@
         <v>19.66333333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,6 +692,9 @@
         <v>19.67166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,6 +721,9 @@
         <v>19.70333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -712,6 +750,9 @@
         <v>19.73333333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -740,6 +781,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -896,550 +955,7 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F21" t="n">
-        <v>30270.5277</v>
-      </c>
-      <c r="G21" t="n">
-        <v>19.93666666666666</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>22</v>
-      </c>
-      <c r="C22" t="n">
-        <v>22</v>
-      </c>
-      <c r="D22" t="n">
-        <v>22</v>
-      </c>
-      <c r="E22" t="n">
-        <v>22</v>
-      </c>
-      <c r="F22" t="n">
-        <v>44.7272</v>
-      </c>
-      <c r="G22" t="n">
-        <v>19.965</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D23" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F23" t="n">
-        <v>54154.0447</v>
-      </c>
-      <c r="G23" t="n">
-        <v>19.97833333333333</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D24" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E24" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>15186</v>
-      </c>
-      <c r="G24" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C25" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E25" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4795</v>
-      </c>
-      <c r="G25" t="n">
-        <v>20.00666666666666</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D26" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F26" t="n">
-        <v>87679.6991</v>
-      </c>
-      <c r="G26" t="n">
-        <v>20.03666666666667</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>21</v>
-      </c>
-      <c r="C27" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>21</v>
-      </c>
-      <c r="E27" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>8764.822700000001</v>
-      </c>
-      <c r="G27" t="n">
-        <v>20.05</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>21</v>
-      </c>
-      <c r="C28" t="n">
-        <v>21</v>
-      </c>
-      <c r="D28" t="n">
-        <v>21</v>
-      </c>
-      <c r="E28" t="n">
-        <v>21</v>
-      </c>
-      <c r="F28" t="n">
-        <v>693.6666</v>
-      </c>
-      <c r="G28" t="n">
-        <v>20.07333333333333</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C29" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D29" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F29" t="n">
-        <v>38943.9793</v>
-      </c>
-      <c r="G29" t="n">
-        <v>20.095</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="D30" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E30" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3990</v>
-      </c>
-      <c r="G30" t="n">
-        <v>20.10666666666667</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C31" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D31" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F31" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G31" t="n">
-        <v>20.12833333333333</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D32" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E32" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="F32" t="n">
-        <v>102546.0321</v>
-      </c>
-      <c r="G32" t="n">
-        <v>20.14333333333333</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>371.3557</v>
-      </c>
-      <c r="G33" t="n">
-        <v>20.15666666666666</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C34" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D34" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E34" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2886</v>
-      </c>
-      <c r="G34" t="n">
-        <v>20.17666666666667</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C35" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D35" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E35" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>22904.5293</v>
-      </c>
-      <c r="G35" t="n">
-        <v>20.20166666666666</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>129494.3153</v>
-      </c>
-      <c r="G36" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C37" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D37" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E37" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>20.24666666666666</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D38" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E38" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>50297.1005</v>
-      </c>
-      <c r="G38" t="n">
-        <v>20.27166666666666</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1217</v>
-      </c>
-      <c r="G39" t="n">
-        <v>20.30666666666666</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C40" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D40" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E40" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F40" t="n">
-        <v>800</v>
-      </c>
-      <c r="G40" t="n">
-        <v>20.33166666666666</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C41" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="D41" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E41" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>36885.1388</v>
-      </c>
-      <c r="G41" t="n">
-        <v>20.34833333333333</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
